--- a/[5] Tester Results/REACTION_PEAKVALUE_TONE_IN_NOISE_DIFF_MERGED_DATE.xlsx
+++ b/[5] Tester Results/REACTION_PEAKVALUE_TONE_IN_NOISE_DIFF_MERGED_DATE.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.544444444444444</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>10.81342592592592</v>
+        <v>2.025</v>
       </c>
       <c r="D2" t="n">
-        <v>1.268981481481481</v>
+        <v>0.02500000000000036</v>
       </c>
       <c r="E2" t="n">
-        <v>67.69444444444444</v>
+        <v>28.76111111111111</v>
       </c>
       <c r="F2" t="n">
-        <v>89.77210648148149</v>
+        <v>37.41076388888889</v>
       </c>
       <c r="G2" t="n">
-        <v>22.07766203703704</v>
+        <v>8.649652777777774</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.81111111111111</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="C3" t="n">
-        <v>10.49652777777778</v>
+        <v>2.055324074074074</v>
       </c>
       <c r="D3" t="n">
-        <v>1.685416666666669</v>
+        <v>-0.0002314814814812216</v>
       </c>
       <c r="E3" t="n">
-        <v>134.4740740740741</v>
+        <v>60.01851851851853</v>
       </c>
       <c r="F3" t="n">
-        <v>159.3835648148148</v>
+        <v>74.62118055555555</v>
       </c>
       <c r="G3" t="n">
-        <v>24.90949074074072</v>
+        <v>14.60266203703703</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/REACTION_PEAKVALUE_TONE_IN_NOISE_DIFF_MERGED_DATE.xlsx
+++ b/[5] Tester Results/REACTION_PEAKVALUE_TONE_IN_NOISE_DIFF_MERGED_DATE.xlsx
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>30.86666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>2.025</v>
+        <v>29.05717592592593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02500000000000036</v>
+        <v>-1.809490740740738</v>
       </c>
       <c r="E2" t="n">
         <v>28.76111111111111</v>
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.055555555555555</v>
+        <v>27.64074074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>2.055324074074074</v>
+        <v>23.3349537037037</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0002314814814812216</v>
+        <v>-4.305787037037039</v>
       </c>
       <c r="E3" t="n">
         <v>60.01851851851853</v>
